--- a/数据整理/stocks/A股/科创板/688392-骄成超声.xlsx
+++ b/数据整理/stocks/A股/科创板/688392-骄成超声.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -498,6 +515,1268 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>040005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安宏利混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7657</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根景气甄选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5080</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001104</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安新丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2520</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014987</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>54.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015071</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鑫元专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>62.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014541</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安新能源主题混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014773</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安品质领先混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>016283</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根景气甄选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015072</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鑫元专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>70.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014988</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>54.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014774</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安品质领先混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005949</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002409</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014542</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安新能源主题混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009200</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安金享混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015172</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013505</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安新丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014641</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015174</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>62.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>016294</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安宏利混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>74.44</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002410</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
